--- a/AML study/20240122_Mappings_sal.xlsx
+++ b/AML study/20240122_Mappings_sal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadinai/Documents/GitHub/colab. AML study/AML study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D14509-79D6-5C4D-BCD7-440CE2255054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA466B89-4CC4-FB45-B4FA-466BE753F9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25680" yWindow="0" windowWidth="25520" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mappings" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Mapping-SAL-original-pentaho'!$A$1:$M$130</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mappings!$A$1:$M$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mappings!$A$1:$M$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="331">
   <si>
     <t>Pat</t>
   </si>
@@ -1175,7 +1175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1221,9 +1221,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1237,7 +1234,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1527,11 +1524,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A122" sqref="A122"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1684,10 +1681,10 @@
       <c r="D6" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>437663</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>211</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -1741,7 +1738,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="21"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -2122,7 +2119,7 @@
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="21"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -2137,7 +2134,7 @@
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="21"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -2155,7 +2152,7 @@
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="21"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -2173,7 +2170,7 @@
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="21"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -2191,7 +2188,7 @@
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="21"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -2248,7 +2245,7 @@
       <c r="D27" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E27" s="21"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -2258,8 +2255,8 @@
       <c r="J27" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
       <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -2271,7 +2268,7 @@
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="21"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -2289,7 +2286,7 @@
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="21"/>
+      <c r="E29" s="20"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -2369,8 +2366,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
-        <v>325</v>
+      <c r="A32" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>303</v>
@@ -2397,21 +2394,21 @@
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>33</v>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>325</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>303</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E33" s="13">
-        <v>37208123</v>
+        <v>213</v>
+      </c>
+      <c r="E33" s="12">
+        <v>44804077</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>211</v>
@@ -2420,36 +2417,27 @@
         <v>187</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I33" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="J33" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="E34" s="6">
-        <v>9580</v>
+      <c r="E34" s="13">
+        <v>37208123</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>211</v>
@@ -2458,30 +2446,36 @@
         <v>187</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>293</v>
+        <v>234</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E35" s="6">
+        <v>9580</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>211</v>
@@ -2490,24 +2484,30 @@
         <v>187</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>303</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E36" s="6">
-        <v>40483363</v>
+        <v>214</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>293</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>211</v>
@@ -2516,410 +2516,407 @@
         <v>187</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="I36" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="J36" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E37" s="12">
-        <v>9580</v>
+      <c r="E37" s="6">
+        <v>40483363</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>187</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="E38" s="6">
-        <v>4156363</v>
+        <v>230</v>
+      </c>
+      <c r="E38" s="12">
+        <v>9580</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>187</v>
       </c>
       <c r="H38" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E39" s="6">
+        <v>4156363</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H39" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+    <row r="40" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="B40" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E40" s="6">
         <v>35964089</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I39" s="5" t="s">
+      <c r="F40" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I40" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="K40" s="7" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E40" s="6">
-        <v>35954887</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E41" s="6">
+        <v>35954887</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="B42" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E42" s="6">
         <v>35946879</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I41" s="5" t="s">
+      <c r="F42" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D42" s="7" t="s">
+      <c r="B43" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E43" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I42" s="7" t="s">
+      <c r="F43" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E43" s="6">
-        <v>1816039</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1816039</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="B45" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E45" s="6">
         <v>35947340</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I44" s="5" t="s">
+      <c r="F45" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I45" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="B46" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E46" s="6">
         <v>35955105</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I45" s="5" t="s">
+      <c r="F46" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I46" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="K46" s="7" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E46" s="6">
-        <v>35963472</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E47" s="6">
+        <v>35963472</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="B48" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E48" s="6">
         <v>35946721</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I47" s="5" t="s">
+      <c r="F48" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I48" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+    <row r="49" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C48" s="5" t="s">
+      <c r="B49" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E49" s="6">
         <v>35948202</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I48" s="5" t="s">
+      <c r="F49" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I49" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="K49" s="7" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E49" s="6">
-        <v>37312067</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>298</v>
@@ -2928,27 +2925,27 @@
         <v>224</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="E50" s="6">
-        <v>35948202</v>
+        <v>37312067</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>154</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>298</v>
@@ -2977,7 +2974,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>298</v>
@@ -3004,15 +3001,15 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>298</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>329</v>
+        <v>224</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>154</v>
@@ -3026,48 +3023,48 @@
       <c r="G53" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="H53" s="18" t="s">
-        <v>328</v>
+      <c r="H53" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K53" s="7" t="s">
+    </row>
+    <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" s="6">
+        <v>35948202</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E54" s="6">
-        <v>35957984</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>298</v>
@@ -3076,10 +3073,10 @@
         <v>224</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E55" s="6">
-        <v>35954356</v>
+        <v>35957984</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>215</v>
@@ -3091,12 +3088,12 @@
         <v>227</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>298</v>
@@ -3105,10 +3102,10 @@
         <v>224</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E56" s="6">
-        <v>35958399</v>
+        <v>35954356</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>215</v>
@@ -3120,12 +3117,12 @@
         <v>227</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>298</v>
@@ -3134,10 +3131,10 @@
         <v>224</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E57" s="6">
-        <v>35947772</v>
+        <v>35958399</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>215</v>
@@ -3149,12 +3146,12 @@
         <v>227</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>298</v>
@@ -3163,10 +3160,10 @@
         <v>224</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E58" s="6">
-        <v>35964476</v>
+        <v>35947772</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>215</v>
@@ -3178,79 +3175,76 @@
         <v>227</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E59" s="6">
+        <v>35964476</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D59" s="5" t="s">
+      <c r="B60" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E60" s="6">
         <v>35950932</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I59" s="5" t="s">
+      <c r="F60" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I60" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
+    <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C60" s="5" t="s">
+      <c r="B61" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E60" s="6">
-        <v>35956153</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>155</v>
@@ -3270,71 +3264,74 @@
       <c r="I61" s="5" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="K61" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" s="6">
+        <v>35956153</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C62" s="5" t="s">
+      <c r="B63" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E63" s="6">
         <v>4019198</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F63" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="G62" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H62" s="5" t="s">
+      <c r="G63" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H63" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="I62" s="5" t="s">
+      <c r="I63" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K62" s="7" t="s">
+      <c r="K63" s="7" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="E63" s="6">
-        <v>35954738</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>298</v>
@@ -3343,10 +3340,10 @@
         <v>224</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E64" s="6">
-        <v>35958935</v>
+        <v>35954738</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>215</v>
@@ -3357,103 +3354,103 @@
       <c r="H64" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="I64" s="13" t="s">
-        <v>264</v>
+      <c r="I64" s="5" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E65" s="6">
+        <v>35958935</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D65" s="5" t="s">
+      <c r="B66" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E66" s="6">
         <v>35963775</v>
       </c>
-      <c r="F65" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I65" s="5" t="s">
+      <c r="F66" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I66" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
+    <row r="67" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="B67" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E67" s="6">
         <v>35960677</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I66" s="5" t="s">
+      <c r="F67" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I67" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="K66" s="7" t="s">
+      <c r="K67" s="7" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E67" s="6">
-        <v>35948329</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>298</v>
@@ -3462,10 +3459,10 @@
         <v>224</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E68" s="6">
-        <v>35953046</v>
+        <v>35948329</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>215</v>
@@ -3477,12 +3474,12 @@
         <v>227</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>298</v>
@@ -3491,10 +3488,10 @@
         <v>224</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E69" s="6">
-        <v>35955904</v>
+        <v>35953046</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>215</v>
@@ -3506,12 +3503,12 @@
         <v>227</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>298</v>
@@ -3520,10 +3517,10 @@
         <v>224</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E70" s="6">
-        <v>35962046</v>
+        <v>35955904</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>215</v>
@@ -3535,12 +3532,12 @@
         <v>227</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>298</v>
@@ -3549,10 +3546,10 @@
         <v>224</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E71" s="6">
-        <v>35955661</v>
+        <v>35962046</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>215</v>
@@ -3564,102 +3561,102 @@
         <v>227</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E72" s="6">
+        <v>35955661</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C72" s="5" t="s">
+      <c r="B73" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E73" s="6">
         <v>35959513</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I72" s="5" t="s">
+      <c r="F73" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I73" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="s">
+    <row r="74" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C73" s="5" t="s">
+      <c r="B74" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D74" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E74" s="6">
         <v>35948791</v>
       </c>
-      <c r="F73" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I73" s="5" t="s">
+      <c r="F74" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I74" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K73" s="7" t="s">
+      <c r="K74" s="7" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E74" s="6">
-        <v>35960978</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>298</v>
@@ -3668,10 +3665,10 @@
         <v>224</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E75" s="6">
-        <v>35945674</v>
+        <v>35960978</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>215</v>
@@ -3683,12 +3680,12 @@
         <v>227</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>298</v>
@@ -3697,10 +3694,10 @@
         <v>224</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E76" s="6">
-        <v>35947617</v>
+        <v>35945674</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>215</v>
@@ -3711,100 +3708,100 @@
       <c r="H76" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="I76" s="13" t="s">
-        <v>272</v>
+      <c r="I76" s="5" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E77" s="6">
+        <v>35947617</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I77" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C77" s="5" t="s">
+      <c r="B78" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E78" s="6">
         <v>35948005</v>
       </c>
-      <c r="F77" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I77" s="5" t="s">
+      <c r="F78" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I78" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="5" t="s">
+    <row r="79" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C78" s="5" t="s">
+      <c r="B79" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D79" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E79" s="6">
         <v>35950119</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="K78" s="7" t="s">
+      <c r="F79" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="K79" s="7" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E79" s="6">
-        <v>35963556</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>298</v>
@@ -3813,10 +3810,10 @@
         <v>224</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E80" s="6">
-        <v>35955125</v>
+        <v>35963556</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>215</v>
@@ -3828,12 +3825,12 @@
         <v>227</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>298</v>
@@ -3842,10 +3839,10 @@
         <v>224</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E81" s="6">
-        <v>35950722</v>
+        <v>35955125</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>215</v>
@@ -3857,12 +3854,12 @@
         <v>227</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>298</v>
@@ -3871,10 +3868,10 @@
         <v>224</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E82" s="6">
-        <v>35956552</v>
+        <v>35950722</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>215</v>
@@ -3886,12 +3883,12 @@
         <v>227</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>298</v>
@@ -3900,10 +3897,10 @@
         <v>224</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E83" s="6">
-        <v>35953192</v>
+        <v>35956552</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>215</v>
@@ -3915,12 +3912,12 @@
         <v>227</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>298</v>
@@ -3929,10 +3926,10 @@
         <v>224</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E84" s="6">
-        <v>35959479</v>
+        <v>35953192</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>215</v>
@@ -3944,12 +3941,12 @@
         <v>227</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>298</v>
@@ -3958,10 +3955,10 @@
         <v>224</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E85" s="6">
-        <v>35951436</v>
+        <v>35959479</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>215</v>
@@ -3973,12 +3970,12 @@
         <v>227</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>298</v>
@@ -3987,10 +3984,10 @@
         <v>224</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E86" s="6">
-        <v>35948718</v>
+        <v>35951436</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>215</v>
@@ -4002,12 +3999,12 @@
         <v>227</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>298</v>
@@ -4016,10 +4013,10 @@
         <v>224</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E87" s="6">
-        <v>35962776</v>
+        <v>35948718</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>215</v>
@@ -4031,12 +4028,12 @@
         <v>227</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>298</v>
@@ -4045,10 +4042,10 @@
         <v>224</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E88" s="6">
-        <v>35959752</v>
+        <v>35962776</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>215</v>
@@ -4060,12 +4057,12 @@
         <v>227</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>298</v>
@@ -4074,10 +4071,10 @@
         <v>224</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E89" s="6">
-        <v>35948531</v>
+        <v>35959752</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>215</v>
@@ -4089,12 +4086,12 @@
         <v>227</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>298</v>
@@ -4103,10 +4100,10 @@
         <v>224</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="E90" s="12">
-        <v>35953392</v>
+        <v>285</v>
+      </c>
+      <c r="E90" s="6">
+        <v>35948531</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>215</v>
@@ -4118,12 +4115,12 @@
         <v>227</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>298</v>
@@ -4132,10 +4129,10 @@
         <v>224</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="E91" s="6">
-        <v>35957947</v>
+        <v>286</v>
+      </c>
+      <c r="E91" s="12">
+        <v>35953392</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>215</v>
@@ -4147,12 +4144,12 @@
         <v>227</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>298</v>
@@ -4161,10 +4158,10 @@
         <v>224</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E92" s="6">
-        <v>35948926</v>
+        <v>35957947</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>215</v>
@@ -4176,131 +4173,131 @@
         <v>227</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E93" s="6">
+        <v>35948926</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D93" s="5" t="s">
+      <c r="B94" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E94" s="6">
         <v>35958923</v>
       </c>
-      <c r="F93" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I93" s="5" t="s">
+      <c r="F94" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I94" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="s">
+    <row r="95" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C94" s="5" t="s">
+      <c r="B95" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E95" s="6">
         <v>35959668</v>
       </c>
-      <c r="F94" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I94" s="5" t="s">
+      <c r="F95" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I95" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K94" s="7" t="s">
+      <c r="K95" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="9" t="s">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D95" s="5" t="s">
+      <c r="B96" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E96" s="6">
         <v>35951184</v>
       </c>
-      <c r="F95" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I95" s="5" t="s">
+      <c r="F96" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I96" s="5" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E96" s="6">
-        <v>44816901</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I96" s="5" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>298</v>
@@ -4309,10 +4306,10 @@
         <v>197</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E97" s="6">
-        <v>46236750</v>
+        <v>44816901</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>212</v>
@@ -4324,12 +4321,12 @@
         <v>227</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>298</v>
@@ -4338,10 +4335,10 @@
         <v>197</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E98" s="6">
-        <v>46236752</v>
+        <v>46236750</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>212</v>
@@ -4353,24 +4350,24 @@
         <v>227</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>298</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>291</v>
+        <v>159</v>
       </c>
       <c r="E99" s="6">
-        <v>46236751</v>
+        <v>46236752</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>212</v>
@@ -4382,41 +4379,41 @@
         <v>227</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>291</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>298</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E100" s="12">
-        <v>4311407</v>
+        <v>291</v>
+      </c>
+      <c r="E100" s="6">
+        <v>46236751</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>216</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>298</v>
@@ -4425,27 +4422,27 @@
         <v>197</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E101" s="6">
-        <v>37111436</v>
+        <v>216</v>
+      </c>
+      <c r="E101" s="12">
+        <v>4311407</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>211</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>298</v>
@@ -4454,27 +4451,27 @@
         <v>197</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="E102" s="6">
-        <v>3041541</v>
+        <v>37111436</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>298</v>
@@ -4483,38 +4480,38 @@
         <v>197</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E103" s="12">
-        <v>4311407</v>
+        <v>163</v>
+      </c>
+      <c r="E103" s="6">
+        <v>3041541</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>298</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E104" s="12">
         <v>4311407</v>
       </c>
       <c r="F104" s="5" t="s">
@@ -4532,7 +4529,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>298</v>
@@ -4541,70 +4538,84 @@
         <v>224</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>292</v>
+        <v>216</v>
       </c>
       <c r="E105" s="6">
-        <v>36017899</v>
+        <v>4311407</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>292</v>
+        <v>216</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E106" s="6">
+        <v>36017899</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B106" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D106" s="5" t="s">
+      <c r="B107" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D107" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E106" s="6">
+      <c r="E107" s="6">
         <v>37111450</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="F107" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="G106" s="5" t="s">
+      <c r="G107" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="H106" s="5" t="s">
+      <c r="H107" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="I106" s="5" t="s">
+      <c r="I107" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="21"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
-    </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="23" t="s">
+      <c r="A108" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B108" s="5" t="s">
@@ -4633,23 +4644,37 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
+      <c r="A109" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E109" s="6">
+        <v>42868749</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>298</v>
@@ -4658,10 +4683,10 @@
         <v>197</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E110" s="6">
-        <v>42868749</v>
+        <v>42868752</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>212</v>
@@ -4673,12 +4698,12 @@
         <v>227</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>298</v>
@@ -4687,10 +4712,10 @@
         <v>197</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E111" s="6">
-        <v>42868752</v>
+        <v>40764964</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>212</v>
@@ -4702,12 +4727,12 @@
         <v>227</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>298</v>
@@ -4716,10 +4741,10 @@
         <v>197</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E112" s="6">
-        <v>40764964</v>
+        <v>42868757</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>212</v>
@@ -4731,12 +4756,12 @@
         <v>227</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>298</v>
@@ -4745,27 +4770,27 @@
         <v>197</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="E113" s="6">
-        <v>42868757</v>
+        <v>37111439</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>298</v>
@@ -4774,10 +4799,10 @@
         <v>197</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E114" s="6">
-        <v>37111439</v>
+        <v>37111441</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>211</v>
@@ -4789,12 +4814,12 @@
         <v>228</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>115</v>
+        <v>327</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>298</v>
@@ -4803,10 +4828,10 @@
         <v>197</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E115" s="6">
-        <v>37111441</v>
+        <v>4004640</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>211</v>
@@ -4818,12 +4843,12 @@
         <v>228</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>298</v>
@@ -4832,27 +4857,27 @@
         <v>197</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="E116" s="6">
-        <v>4004640</v>
+        <v>42539721</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>211</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>326</v>
+        <v>118</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>298</v>
@@ -4861,10 +4886,10 @@
         <v>197</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E117" s="6">
-        <v>42539721</v>
+        <v>217</v>
+      </c>
+      <c r="E117" s="12">
+        <v>42537875</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>211</v>
@@ -4876,12 +4901,12 @@
         <v>221</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>298</v>
@@ -4890,10 +4915,10 @@
         <v>197</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E118" s="12">
-        <v>42537875</v>
+        <v>4311407</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>211</v>
@@ -4905,44 +4930,15 @@
         <v>221</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D119" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="E119" s="12">
-        <v>4311407</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I119" s="5" t="s">
-        <v>216</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M119" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M118" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="L30" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="L33" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="L36" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="L34" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L37" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="L22" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4956,7 +4952,7 @@
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+      <selection pane="bottomLeft" activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -5727,7 +5723,7 @@
       <c r="D32" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="22">
         <v>45876308</v>
       </c>
       <c r="F32" s="5" t="s">
@@ -5753,7 +5749,7 @@
       <c r="B33" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="E33" s="17"/>
+      <c r="E33" s="22"/>
       <c r="J33" s="5" t="s">
         <v>127</v>
       </c>
@@ -5765,7 +5761,7 @@
       <c r="B34" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="E34" s="17"/>
+      <c r="E34" s="22"/>
       <c r="J34" s="5" t="s">
         <v>128</v>
       </c>
@@ -8529,7 +8525,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="19"/>
+      <c r="B8" s="18"/>
       <c r="C8" t="s">
         <v>318</v>
       </c>
